--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3604.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3604.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.490984502097531</v>
+        <v>1.248339533805847</v>
       </c>
       <c r="B1">
-        <v>3.059512576106035</v>
+        <v>2.606176137924194</v>
       </c>
       <c r="C1">
-        <v>4.041223898087901</v>
+        <v>5.06770658493042</v>
       </c>
       <c r="D1">
-        <v>1.536594598470951</v>
+        <v>2.011683464050293</v>
       </c>
       <c r="E1">
-        <v>0.7991369140130097</v>
+        <v>1.163261294364929</v>
       </c>
     </row>
   </sheetData>
